--- a/Assets/__Project/Excel/ConstantTable/SpawnEvent.xlsx
+++ b/Assets/__Project/Excel/ConstantTable/SpawnEvent.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\PandaIsPanda\Assets\__Project\Excel\Constant\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\PandaIsPanda\Assets\__Project\Excel\ConstantTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B96EC5A9-149A-4B69-A278-AF72D90662F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{693763F5-0387-4B53-82CE-0E13DC02E1A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33630" yWindow="2745" windowWidth="21600" windowHeight="11295" xr2:uid="{39B0813D-EEC4-4950-A89B-04D0AEABF1C1}"/>
+    <workbookView xWindow="30885" yWindow="3135" windowWidth="21600" windowHeight="11295" xr2:uid="{39B0813D-EEC4-4950-A89B-04D0AEABF1C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,9 +36,41 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unitId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유닛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소환 개수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spawnEventTriggerType</t>
+  </si>
+  <si>
+    <t>소한 트리거
+0 -&gt; 라운드 시작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spawnCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>callCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>호출 횟수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -46,7 +78,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -57,6 +89,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
@@ -85,11 +125,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -426,51 +472,140 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D8B2050-A0C3-4ED6-A914-8474FA4A2226}">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
+      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="21" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>5</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1">
+        <v>5</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>4</v>
+      </c>
+      <c r="D6" s="1">
+        <v>5</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>5</v>
+      </c>
+      <c r="D7" s="1">
+        <v>5</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/__Project/Excel/ConstantTable/SpawnEvent.xlsx
+++ b/Assets/__Project/Excel/ConstantTable/SpawnEvent.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\PandaIsPanda\Assets\__Project\Excel\ConstantTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{693763F5-0387-4B53-82CE-0E13DC02E1A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{431C8EDC-4E1D-46C8-AD54-BEDF47C54E3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30885" yWindow="3135" windowWidth="21600" windowHeight="11295" xr2:uid="{39B0813D-EEC4-4950-A89B-04D0AEABF1C1}"/>
+    <workbookView xWindow="33225" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{39B0813D-EEC4-4950-A89B-04D0AEABF1C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -476,7 +476,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
+      <selection pane="bottomLeft" activeCell="G15" sqref="G15:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -493,11 +493,11 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>7</v>
@@ -510,11 +510,11 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>8</v>
@@ -528,10 +528,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
         <v>0</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1</v>
       </c>
       <c r="D3" s="1">
         <v>5</v>
@@ -545,10 +545,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
         <v>0</v>
-      </c>
-      <c r="C4" s="1">
-        <v>2</v>
       </c>
       <c r="D4" s="1">
         <v>5</v>
@@ -562,10 +562,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1">
         <v>0</v>
-      </c>
-      <c r="C5" s="1">
-        <v>3</v>
       </c>
       <c r="D5" s="1">
         <v>5</v>
@@ -579,10 +579,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1">
         <v>0</v>
-      </c>
-      <c r="C6" s="1">
-        <v>4</v>
       </c>
       <c r="D6" s="1">
         <v>5</v>
@@ -596,10 +596,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1">
         <v>0</v>
-      </c>
-      <c r="C7" s="1">
-        <v>5</v>
       </c>
       <c r="D7" s="1">
         <v>5</v>
